--- a/pilot-study/report/participation/having-participation/NonParametricAnalysis.xlsx
+++ b/pilot-study/report/participation/having-participation/NonParametricAnalysis.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="50">
   <si>
-    <t>Summary of Kruskal-Wallis rank sum test for Pct of Students Having Participation</t>
+    <t>Summary of Kruskal-Wallis rank sum test for Pct Having Participation</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -59,7 +59,7 @@
     <t>non-gamified - ont-gamified</t>
   </si>
   <si>
-    <t>Summary of Wilcoxon Analysis for Pct of Students Having Participation</t>
+    <t>Summary of Wilcoxon Analysis for Pct Having Participation</t>
   </si>
   <si>
     <t>Wilcoxon test results for Type - Alternative hypothesis: less</t>
@@ -98,7 +98,7 @@
     <t>medium</t>
   </si>
   <si>
-    <t>Wilcoxon Analysis for Pct of Students Having Participation in Type between non-gamified:ont-gamified</t>
+    <t>Wilcoxon Analysis for Pct Having Participation in Type between non-gamified:ont-gamified</t>
   </si>
   <si>
     <t>Wilcoxon test results</t>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n" s="246">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B60" t="s" s="247">
         <v>41</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n" s="246">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="B66" t="s" s="247">
         <v>41</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n" s="246">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="B70" t="s" s="247">
         <v>46</v>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="257">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B5" t="s" s="258">
         <v>41</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="257">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="B11" t="s" s="258">
         <v>41</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n" s="257">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="B15" t="s" s="258">
         <v>46</v>
